--- a/tools/stone-entity-generator/do-meta.xlsx
+++ b/tools/stone-entity-generator/do-meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzang/workspace/musketeers/stone/tools/stone-entity-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D7D8B66-0112-124A-9AD5-E3ED61E2FC16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D8B288-CF82-D74F-9134-CE0AD32CD628}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="15820" tabRatio="783"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="15820" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Course" sheetId="64" r:id="rId1"/>
@@ -25,18 +25,11 @@
     <sheet name="OtherCourse" sheetId="76" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="158">
   <si>
     <t>Label</t>
   </si>
@@ -516,12 +509,15 @@
   </si>
   <si>
     <t>Hits</t>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -751,9 +747,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1098,11 +1094,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1310,7 +1306,7 @@
     </row>
     <row r="6" spans="1:26" ht="16">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
@@ -1335,7 +1331,9 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="16">
@@ -1423,7 +1421,9 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="Y9" t="s">
         <v>22</v>
@@ -1456,7 +1456,9 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="Y10" t="s">
         <v>22</v>
@@ -1864,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2430,7 +2432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2739,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3090,7 +3092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3399,7 +3401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3806,7 +3808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4189,7 +4191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4606,7 +4608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4971,7 +4973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
